--- a/data/tempeallen.xlsx
+++ b/data/tempeallen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Dev\Projets\phys_exp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\GitHub\phys_exp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE38D78-3F27-4B9A-A085-51EB15CDCFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE49AB7-BBB4-4D03-A36E-764D790EB0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9317C390-3D87-4FE5-8449-C6828F30E0E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Temps</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Temps2</t>
-  </si>
-  <si>
-    <t>logTemp</t>
   </si>
   <si>
     <t>Temps3</t>
@@ -75,10 +72,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,9 +107,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827CC73B-E7CA-4FC1-B79B-C6102205C8CC}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K29"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,28 +445,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -484,7 +483,7 @@
         <v>6.9</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H2">
         <v>-7.9</v>
@@ -493,15 +492,11 @@
         <v>168</v>
       </c>
       <c r="J2">
-        <f>LOG(G7)</f>
-        <v>1.6989700043360187</v>
-      </c>
-      <c r="K2">
-        <f>LOG(H7)</f>
-        <v>0.25527250510330607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H2)</f>
+        <v>1.481442628502305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+3</f>
         <v>3</v>
@@ -525,7 +520,7 @@
       </c>
       <c r="G3">
         <f>G2+10</f>
-        <v>10</v>
+        <v>10.00001</v>
       </c>
       <c r="H3">
         <v>-6.9</v>
@@ -534,15 +529,11 @@
         <v>167.4</v>
       </c>
       <c r="J3">
-        <f>LOG(G8)</f>
-        <v>1.7781512503836436</v>
-      </c>
-      <c r="K3">
-        <f>LOG(H8)</f>
-        <v>0.53147891704225514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H3)</f>
+        <v>1.4668676203541093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A51" si="0">A3+3</f>
         <v>6</v>
@@ -566,7 +557,7 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G34" si="3">G3+10</f>
-        <v>20</v>
+        <v>20.00001</v>
       </c>
       <c r="H4">
         <v>-6.5</v>
@@ -575,15 +566,11 @@
         <v>165.05</v>
       </c>
       <c r="J4">
-        <f>LOG(G9)</f>
-        <v>1.8450980400142569</v>
-      </c>
-      <c r="K4">
-        <f>LOG(H9)</f>
-        <v>0.76342799356293722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H4)</f>
+        <v>1.4608978427565478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -607,7 +594,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>30.00001</v>
       </c>
       <c r="H5">
         <v>-3.2</v>
@@ -616,15 +603,11 @@
         <v>164.78</v>
       </c>
       <c r="J5">
-        <f>LOG(G10)</f>
-        <v>1.9030899869919435</v>
-      </c>
-      <c r="K5">
-        <f>LOG(H10)</f>
-        <v>0.77085201164214423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H5)</f>
+        <v>1.4082399653118496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -648,7 +631,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>40.000010000000003</v>
       </c>
       <c r="H6">
         <v>-0.4</v>
@@ -657,15 +640,11 @@
         <v>164.54</v>
       </c>
       <c r="J6">
-        <f>LOG(G11)</f>
-        <v>1.954242509439325</v>
-      </c>
-      <c r="K6">
-        <f>LOG(H11)</f>
-        <v>0.69897000433601886</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H6)</f>
+        <v>1.3579348470004537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -689,7 +668,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>50.000010000000003</v>
       </c>
       <c r="H7">
         <v>1.8</v>
@@ -698,15 +677,11 @@
         <v>164.36</v>
       </c>
       <c r="J7">
-        <f>LOG(G12)</f>
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <f>LOG(H12)</f>
-        <v>0.80617997398388719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H7)</f>
+        <v>1.3138672203691533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -730,7 +705,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>60.000010000000003</v>
       </c>
       <c r="H8">
         <v>3.4</v>
@@ -739,15 +714,11 @@
         <v>164.29</v>
       </c>
       <c r="J8">
-        <f>LOG(G13)</f>
-        <v>2.0413926851582249</v>
-      </c>
-      <c r="K8">
-        <f>LOG(H13)</f>
-        <v>0.88649072517248184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H8)</f>
+        <v>1.2787536009528289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -756,7 +727,7 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="C9">
-        <f>C8+10</f>
+        <f t="shared" ref="C9:C23" si="4">C8+10</f>
         <v>80</v>
       </c>
       <c r="D9">
@@ -771,7 +742,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>70.000010000000003</v>
       </c>
       <c r="H9">
         <v>5.8</v>
@@ -780,15 +751,11 @@
         <v>164.22</v>
       </c>
       <c r="J9">
-        <f>LOG(G14)</f>
-        <v>2.0791812460476247</v>
-      </c>
-      <c r="K9">
-        <f>LOG(H14)</f>
-        <v>0.93951925261861846</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H9)</f>
+        <v>1.220108088040055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -797,7 +764,7 @@
         <v>-3.9</v>
       </c>
       <c r="C10">
-        <f>C9+10</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="D10">
@@ -812,7 +779,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>80.000010000000003</v>
       </c>
       <c r="H10">
         <v>5.9</v>
@@ -821,15 +788,11 @@
         <v>164.17</v>
       </c>
       <c r="J10">
-        <f>LOG(G15)</f>
-        <v>2.1139433523068369</v>
-      </c>
-      <c r="K10">
-        <f>LOG(H15)</f>
-        <v>0.95424250943932487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H10)</f>
+        <v>1.2174839442139063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -838,7 +801,7 @@
         <v>-3.6</v>
       </c>
       <c r="C11">
-        <f>C10+10</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="D11">
@@ -853,7 +816,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>90.000010000000003</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -862,15 +825,11 @@
         <v>164.17</v>
       </c>
       <c r="J11">
-        <f>LOG(G16)</f>
-        <v>2.1461280356782382</v>
-      </c>
-      <c r="K11">
-        <f>LOG(H16)</f>
-        <v>1.0334237554869496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H11)</f>
+        <v>1.2405492482825997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -879,7 +838,7 @@
         <v>-3.4</v>
       </c>
       <c r="C12">
-        <f>C11+10</f>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="D12">
@@ -894,7 +853,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>100.00001</v>
       </c>
       <c r="H12">
         <v>6.4</v>
@@ -903,15 +862,11 @@
         <v>164.14</v>
       </c>
       <c r="J12">
-        <f>LOG(G17)</f>
-        <v>2.1760912590556813</v>
-      </c>
-      <c r="K12">
-        <f>LOG(H17)</f>
-        <v>1.0569048513364727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H12)</f>
+        <v>1.2041199826559248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -920,7 +875,7 @@
         <v>-3</v>
       </c>
       <c r="C13">
-        <f>C12+10</f>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="D13">
@@ -935,7 +890,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>110.00001</v>
       </c>
       <c r="H13">
         <v>7.7</v>
@@ -944,15 +899,11 @@
         <v>164.12</v>
       </c>
       <c r="J13">
-        <f>LOG(G18)</f>
-        <v>2.2041199826559246</v>
-      </c>
-      <c r="K13">
-        <f>LOG(H18)</f>
-        <v>1.0334237554869496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H13)</f>
+        <v>1.167317334748176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -961,7 +912,7 @@
         <v>-2.9</v>
       </c>
       <c r="C14">
-        <f>C13+10</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="D14">
@@ -976,7 +927,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>120.00001</v>
       </c>
       <c r="H14">
         <v>8.6999999999999993</v>
@@ -985,15 +936,11 @@
         <v>164.12</v>
       </c>
       <c r="J14">
-        <f>LOG(G19)</f>
-        <v>2.2304489213782741</v>
-      </c>
-      <c r="K14">
-        <f>LOG(H19)</f>
-        <v>1.0128372247051722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H14)</f>
+        <v>1.1367205671564067</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1002,7 +949,7 @@
         <v>-2.5</v>
       </c>
       <c r="C15">
-        <f>C14+10</f>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="D15">
@@ -1017,7 +964,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>130.00001</v>
       </c>
       <c r="H15">
         <v>9</v>
@@ -1026,15 +973,11 @@
         <v>164.11</v>
       </c>
       <c r="J15">
-        <f>LOG(G20)</f>
-        <v>2.255272505103306</v>
-      </c>
-      <c r="K15">
-        <f>LOG(H20)</f>
-        <v>1.0453229787866574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H15)</f>
+        <v>1.1271047983648075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>48</v>
       </c>
@@ -1042,7 +985,7 @@
         <v>-1.6</v>
       </c>
       <c r="C16">
-        <f>C15+10</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="D16">
@@ -1057,7 +1000,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>140.00001</v>
       </c>
       <c r="H16">
         <v>10.8</v>
@@ -1066,15 +1009,11 @@
         <v>164.07</v>
       </c>
       <c r="J16">
-        <f>LOG(G21)</f>
-        <v>2.2787536009528289</v>
-      </c>
-      <c r="K16">
-        <f>LOG(H21)</f>
-        <v>1.0755469613925308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H16)</f>
+        <v>1.0644579892269184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1083,7 +1022,7 @@
         <v>-1.5</v>
       </c>
       <c r="C17">
-        <f>C16+10</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="D17">
@@ -1098,7 +1037,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>150.00001</v>
       </c>
       <c r="H17">
         <v>11.4</v>
@@ -1107,15 +1046,11 @@
         <v>164.07</v>
       </c>
       <c r="J17">
-        <f>LOG(G22)</f>
-        <v>2.3010299956639813</v>
-      </c>
-      <c r="K17">
-        <f>LOG(H22)</f>
-        <v>1.0863598306747482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H17)</f>
+        <v>1.0413926851582249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>A17+3</f>
         <v>54</v>
@@ -1124,7 +1059,7 @@
         <v>-1.2</v>
       </c>
       <c r="C18">
-        <f>C17+10</f>
+        <f t="shared" si="4"/>
         <v>170</v>
       </c>
       <c r="D18">
@@ -1139,7 +1074,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>160.00001</v>
       </c>
       <c r="H18">
         <v>10.8</v>
@@ -1148,15 +1083,11 @@
         <v>164.08</v>
       </c>
       <c r="J18">
-        <f>LOG(G23)</f>
-        <v>2.3222192947339191</v>
-      </c>
-      <c r="K18">
-        <f>LOG(H23)</f>
-        <v>1.1003705451175629</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H18)</f>
+        <v>1.0644579892269184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1165,7 +1096,7 @@
         <v>-0.7</v>
       </c>
       <c r="C19">
-        <f>C18+10</f>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="D19">
@@ -1180,7 +1111,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>170.00001</v>
       </c>
       <c r="H19">
         <v>10.3</v>
@@ -1189,15 +1120,11 @@
         <v>164.08</v>
       </c>
       <c r="J19">
-        <f>LOG(G24)</f>
-        <v>2.3424226808222062</v>
-      </c>
-      <c r="K19">
-        <f>LOG(H24)</f>
-        <v>1.1139433523068367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H19)</f>
+        <v>1.0827853703164501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1206,7 +1133,7 @@
         <v>-0.1</v>
       </c>
       <c r="C20">
-        <f>C19+10</f>
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
       <c r="D20">
@@ -1221,7 +1148,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>180.00001</v>
       </c>
       <c r="H20">
         <v>11.1</v>
@@ -1230,15 +1157,11 @@
         <v>164.09</v>
       </c>
       <c r="J20">
-        <f>LOG(G25)</f>
-        <v>2.3617278360175931</v>
-      </c>
-      <c r="K20">
-        <f>LOG(H25)</f>
-        <v>1.1522883443830565</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H20)</f>
+        <v>1.0530784434834197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1247,7 +1170,7 @@
         <v>-0.2</v>
       </c>
       <c r="C21">
-        <f>C20+10</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D21">
@@ -1262,7 +1185,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>190.00001</v>
       </c>
       <c r="H21">
         <v>11.9</v>
@@ -1271,15 +1194,11 @@
         <v>164.1</v>
       </c>
       <c r="J21">
-        <f>LOG(G26)</f>
-        <v>2.3802112417116059</v>
-      </c>
-      <c r="K21">
-        <f>LOG(H26)</f>
-        <v>1.1702617153949575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H21)</f>
+        <v>1.0211892990699381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1288,7 +1207,7 @@
         <v>-0.3</v>
       </c>
       <c r="C22">
-        <f>C21+10</f>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="D22">
@@ -1303,7 +1222,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>200.00001</v>
       </c>
       <c r="H22">
         <v>12.2</v>
@@ -1312,15 +1231,11 @@
         <v>164.11</v>
       </c>
       <c r="J22">
-        <f>LOG(G27)</f>
-        <v>2.3979400086720375</v>
-      </c>
-      <c r="K22">
-        <f>LOG(H27)</f>
-        <v>1.1903316981702914</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H22)</f>
+        <v>1.0086001717619175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>72</f>
         <v>72</v>
@@ -1329,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <f>C22+10</f>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="D23">
@@ -1344,7 +1259,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>210.00001</v>
       </c>
       <c r="H23">
         <v>12.6</v>
@@ -1353,15 +1268,11 @@
         <v>164.1</v>
       </c>
       <c r="J23">
-        <f>LOG(G28)</f>
-        <v>2.4149733479708178</v>
-      </c>
-      <c r="K23">
-        <f>LOG(H28)</f>
-        <v>1.1986570869544226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H23)</f>
+        <v>0.99122607569249477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -1369,7 +1280,7 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <f>240</f>
         <v>240</v>
       </c>
@@ -1385,7 +1296,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>220.00001</v>
       </c>
       <c r="H24">
         <v>13</v>
@@ -1394,15 +1305,11 @@
         <v>164.1</v>
       </c>
       <c r="J24">
-        <f>LOG(G29)</f>
-        <v>2.4313637641589874</v>
-      </c>
-      <c r="K24">
-        <f>LOG(H29)</f>
-        <v>1.2148438480476977</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H24)</f>
+        <v>0.97312785359969856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -1411,7 +1318,7 @@
         <v>1.2</v>
       </c>
       <c r="C25">
-        <f>C24+10</f>
+        <f t="shared" ref="C25:C30" si="5">C24+10</f>
         <v>250</v>
       </c>
       <c r="D25">
@@ -1426,7 +1333,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>230.00001</v>
       </c>
       <c r="H25">
         <v>14.2</v>
@@ -1435,15 +1342,11 @@
         <v>164.11</v>
       </c>
       <c r="J25">
-        <f>LOG(G30)</f>
-        <v>2.4471580313422194</v>
-      </c>
-      <c r="K25">
-        <f>LOG(H30)</f>
-        <v>1.2253092817258628</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H25)</f>
+        <v>0.91381385238371671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>84</v>
       </c>
@@ -1451,7 +1354,7 @@
         <v>1.5</v>
       </c>
       <c r="C26">
-        <f>C25+10</f>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="D26">
@@ -1466,7 +1369,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>240.00001</v>
       </c>
       <c r="H26">
         <v>14.8</v>
@@ -1475,15 +1378,11 @@
         <v>164.09</v>
       </c>
       <c r="J26">
-        <f>LOG(G31)</f>
-        <v>2.4623979978989561</v>
-      </c>
-      <c r="K26">
-        <f>LOG(H31)</f>
-        <v>1.2355284469075489</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H26)</f>
+        <v>0.88081359228079126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -1492,7 +1391,7 @@
         <v>1.6</v>
       </c>
       <c r="C27">
-        <f>C26+10</f>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="D27">
@@ -1507,7 +1406,7 @@
       </c>
       <c r="G27">
         <f>G26+10</f>
-        <v>250</v>
+        <v>250.00001</v>
       </c>
       <c r="H27">
         <v>15.5</v>
@@ -1516,15 +1415,11 @@
         <v>164.1</v>
       </c>
       <c r="J27">
-        <f>LOG(G32)</f>
-        <v>2.4771212547196626</v>
-      </c>
-      <c r="K27">
-        <f>LOG(H32)</f>
-        <v>1.2304489213782739</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H27)</f>
+        <v>0.83884909073725522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -1533,7 +1428,7 @@
         <v>1.9</v>
       </c>
       <c r="C28">
-        <f>C27+10</f>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="D28">
@@ -1548,7 +1443,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
-        <v>260</v>
+        <v>260.00000999999997</v>
       </c>
       <c r="H28">
         <v>15.8</v>
@@ -1557,15 +1452,11 @@
         <v>164.1</v>
       </c>
       <c r="J28">
-        <f>LOG(G33)</f>
-        <v>2.4913616938342726</v>
-      </c>
-      <c r="K28">
-        <f>LOG(H33)</f>
-        <v>1.2405492482825997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H28)</f>
+        <v>0.81954393554186855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>93</v>
@@ -1574,7 +1465,7 @@
         <v>1.9</v>
       </c>
       <c r="C29">
-        <f>C28+10</f>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="D29">
@@ -1589,7 +1480,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>270.00000999999997</v>
       </c>
       <c r="H29">
         <v>16.399999999999999</v>
@@ -1598,15 +1489,11 @@
         <v>164.09</v>
       </c>
       <c r="J29">
-        <f>LOG(G34)</f>
-        <v>2.5051499783199058</v>
-      </c>
-      <c r="K29">
-        <f>LOG(H34)</f>
-        <v>1.2528530309798931</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <f>LOG(22.4-H29)</f>
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>A29+3</f>
         <v>96</v>
@@ -1615,7 +1502,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C30">
-        <f>C29+10</f>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="D30">
@@ -1630,7 +1517,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>280.00000999999997</v>
       </c>
       <c r="H30">
         <v>16.8</v>
@@ -1638,8 +1525,12 @@
       <c r="I30">
         <v>164.09</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <f>LOG(22.4-H30)</f>
+        <v>0.74818802700620024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>99</v>
@@ -1663,7 +1554,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
-        <v>290</v>
+        <v>290.00000999999997</v>
       </c>
       <c r="H31">
         <v>17.2</v>
@@ -1671,8 +1562,12 @@
       <c r="I31">
         <v>164.09</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <f>LOG(22.4-H31)</f>
+        <v>0.71600334363479912</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -1681,7 +1576,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C32">
-        <f>C31+10</f>
+        <f t="shared" ref="C32:C50" si="6">C31+10</f>
         <v>370</v>
       </c>
       <c r="D32">
@@ -1696,7 +1591,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>300.00000999999997</v>
       </c>
       <c r="H32">
         <v>17</v>
@@ -1704,8 +1599,12 @@
       <c r="I32">
         <v>164.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <f>LOG(22.4-H32)</f>
+        <v>0.73239375982296839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -1714,7 +1613,7 @@
         <v>2.6</v>
       </c>
       <c r="C33">
-        <f>C32+10</f>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="D33">
@@ -1729,7 +1628,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>310.00000999999997</v>
       </c>
       <c r="H33">
         <v>17.399999999999999</v>
@@ -1737,8 +1636,12 @@
       <c r="I33">
         <v>164.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <f>LOG(22.4-H33)</f>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -1747,7 +1650,7 @@
         <v>2.9</v>
       </c>
       <c r="C34">
-        <f>C33+10</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="D34">
@@ -1762,7 +1665,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>320.00000999999997</v>
       </c>
       <c r="H34">
         <v>17.899999999999999</v>
@@ -1770,8 +1673,12 @@
       <c r="I34">
         <v>164.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <f>LOG(22.4-H34)</f>
+        <v>0.65321251377534373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>111</v>
@@ -1780,7 +1687,7 @@
         <v>3.2</v>
       </c>
       <c r="C35">
-        <f>C34+10</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="D35">
@@ -1794,7 +1701,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>114</v>
@@ -1803,7 +1710,7 @@
         <v>3.2</v>
       </c>
       <c r="C36">
-        <f>C35+10</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="D36">
@@ -1817,7 +1724,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>117</v>
@@ -1826,7 +1733,7 @@
         <v>3.2</v>
       </c>
       <c r="C37">
-        <f>C36+10</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
       <c r="D37">
@@ -1840,7 +1747,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -1849,7 +1756,7 @@
         <v>3.4</v>
       </c>
       <c r="C38">
-        <f>C37+10</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
       <c r="D38">
@@ -1863,7 +1770,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>123</v>
@@ -1872,7 +1779,7 @@
         <v>3.6</v>
       </c>
       <c r="C39">
-        <f>C38+10</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
       <c r="D39">
@@ -1886,7 +1793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>126</v>
@@ -1895,14 +1802,14 @@
         <v>3.9</v>
       </c>
       <c r="C40">
-        <f>C39+10</f>
+        <f t="shared" si="6"/>
         <v>450</v>
       </c>
       <c r="D40">
         <v>11.8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -1911,14 +1818,14 @@
         <v>3.7</v>
       </c>
       <c r="C41">
-        <f>C40+10</f>
+        <f t="shared" si="6"/>
         <v>460</v>
       </c>
       <c r="D41">
         <v>12.8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>132</v>
@@ -1927,14 +1834,14 @@
         <v>3.8</v>
       </c>
       <c r="C42">
-        <f>C41+10</f>
+        <f t="shared" si="6"/>
         <v>470</v>
       </c>
       <c r="D42">
         <v>12.6</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>135</v>
@@ -1943,14 +1850,14 @@
         <v>3.6</v>
       </c>
       <c r="C43">
-        <f>C42+10</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="D43">
         <v>12.2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>138</v>
@@ -1959,14 +1866,14 @@
         <v>3.8</v>
       </c>
       <c r="C44">
-        <f>C43+10</f>
+        <f t="shared" si="6"/>
         <v>490</v>
       </c>
       <c r="D44">
         <v>11.2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>141</v>
@@ -1975,14 +1882,14 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C45">
-        <f>C44+10</f>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="D45">
         <v>12.4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>144</v>
@@ -1991,14 +1898,14 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C46">
-        <f>C45+10</f>
+        <f t="shared" si="6"/>
         <v>510</v>
       </c>
       <c r="D46">
         <v>12.3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>147</v>
@@ -2007,14 +1914,14 @@
         <v>4.8</v>
       </c>
       <c r="C47">
-        <f>C46+10</f>
+        <f t="shared" si="6"/>
         <v>520</v>
       </c>
       <c r="D47">
         <v>12.5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -2023,7 +1930,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C48">
-        <f>C47+10</f>
+        <f t="shared" si="6"/>
         <v>530</v>
       </c>
       <c r="D48">
@@ -2039,7 +1946,7 @@
         <v>4.5</v>
       </c>
       <c r="C49">
-        <f>C48+10</f>
+        <f t="shared" si="6"/>
         <v>540</v>
       </c>
       <c r="D49">
@@ -2055,7 +1962,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C50">
-        <f>C49+10</f>
+        <f t="shared" si="6"/>
         <v>550</v>
       </c>
       <c r="D50">
@@ -2072,6 +1979,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/tempeallen.xlsx
+++ b/data/tempeallen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\GitHub\phys_exp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE49AB7-BBB4-4D03-A36E-764D790EB0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7D9FAF-E733-4FF3-95E3-4A8226485B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9317C390-3D87-4FE5-8449-C6828F30E0E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Temps</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>logTempé</t>
+  </si>
+  <si>
+    <t>1/T</t>
+  </si>
+  <si>
+    <t>Resistance4 2</t>
+  </si>
+  <si>
+    <t>AllTemps</t>
+  </si>
+  <si>
+    <t>AllTempé</t>
   </si>
 </sst>
 </file>
@@ -124,6 +136,1160 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.4554980789213646E-2"/>
+          <c:y val="0.12642449629810898"/>
+          <c:w val="0.94977080130355873"/>
+          <c:h val="0.81630631408733867"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resistance4 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20851159230096239"/>
+                  <c:y val="-9.8960338291046959E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$2:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-0.12658227848101264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.14492753623188406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.15384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29411764705882354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17241379310344829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16949152542372881</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12987012987012986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1149425287356322</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2592592592592587E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.771929824561403E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2592592592592587E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.7087378640776698E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.00900900900901E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.4033613445378144E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1967213114754106E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9365079365079361E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0422535211267609E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.7567567567567557E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.4516129032258063E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3291139240506319E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0975609756097567E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.9523809523809521E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8139534883720929E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.8823529411764705E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.7471264367816098E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5865921787709501E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$2:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>164.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>164.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>164.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>164.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>164.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>164.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>164.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>164.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>164.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>164.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>164.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>164.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>164.11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>164.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>164.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>164.11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>164.09</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>164.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>164.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>164.09</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>164.09</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>164.09</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>164.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>164.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>164.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF01-45A1-933F-E37B85F0FD78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1058838303"/>
+        <c:axId val="1316152479"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1058838303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1316152479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1316152479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1058838303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CC9B01-B6EA-11CB-8C54-3A77CF2AD3BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,15 +1589,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827CC73B-E7CA-4FC1-B79B-C6102205C8CC}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +1628,20 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -492,11 +1670,25 @@
         <v>168</v>
       </c>
       <c r="J2">
-        <f>LOG(22.4-H2)</f>
+        <f t="shared" ref="J2:J34" si="0">LOG(22.4-H2)</f>
         <v>1.481442628502305</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <f>1/H2</f>
+        <v>-0.12658227848101264</v>
+      </c>
+      <c r="L2">
+        <v>168</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>22.4 + (-196 - 22.4 )*EXP(-M2/139)</f>
+        <v>-196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+3</f>
         <v>3</v>
@@ -529,34 +1721,49 @@
         <v>167.4</v>
       </c>
       <c r="J3">
-        <f>LOG(22.4-H3)</f>
+        <f t="shared" si="0"/>
         <v>1.4668676203541093</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f t="shared" ref="K3:K34" si="1">1/H3</f>
+        <v>-0.14492753623188406</v>
+      </c>
+      <c r="L3">
+        <v>167.4</v>
+      </c>
+      <c r="M3">
+        <f>M2+10</f>
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N40" si="2">22.4 + (-196 - 22.4 )*EXP(-M3/139)</f>
+        <v>-180.83964455429214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A51" si="0">A3+3</f>
+        <f t="shared" ref="A4:A51" si="3">A3+3</f>
         <v>6</v>
       </c>
       <c r="B4">
         <v>-5.5</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C7" si="1">C3+10</f>
+        <f t="shared" ref="C4:C7" si="4">C3+10</f>
         <v>20</v>
       </c>
       <c r="D4">
         <v>3.4</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E39" si="2">E3+10</f>
+        <f t="shared" ref="E4:E39" si="5">E3+10</f>
         <v>20</v>
       </c>
       <c r="F4">
         <v>4.4000000000000004</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G34" si="3">G3+10</f>
+        <f t="shared" ref="G4:G34" si="6">G3+10</f>
         <v>20.00001</v>
       </c>
       <c r="H4">
@@ -566,34 +1773,49 @@
         <v>165.05</v>
       </c>
       <c r="J4">
-        <f>LOG(22.4-H4)</f>
+        <f t="shared" si="0"/>
         <v>1.4608978427565478</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="L4">
+        <v>165.05</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M52" si="7">M3+10</f>
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>-166.73165347323723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B5">
         <v>-5.4</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="F5">
         <v>5.9</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30.00001</v>
       </c>
       <c r="H5">
@@ -603,34 +1825,49 @@
         <v>164.78</v>
       </c>
       <c r="J5">
-        <f>LOG(22.4-H5)</f>
+        <f t="shared" si="0"/>
         <v>1.4082399653118496</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>-0.3125</v>
+      </c>
+      <c r="L5">
+        <v>164.78</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>-153.60297630891159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B6">
         <v>-5</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="D6">
         <v>5.5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="F6">
         <v>7.2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>40.000010000000003</v>
       </c>
       <c r="H6">
@@ -640,34 +1877,49 @@
         <v>164.54</v>
       </c>
       <c r="J6">
-        <f>LOG(22.4-H6)</f>
+        <f t="shared" si="0"/>
         <v>1.3579348470004537</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="L6">
+        <v>164.54</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>-141.38563345018633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B7">
         <v>-4.5</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="D7">
         <v>5.6</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="F7">
         <v>8.3000000000000007</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50.000010000000003</v>
       </c>
       <c r="H7">
@@ -677,13 +1929,28 @@
         <v>164.36</v>
       </c>
       <c r="J7">
-        <f>LOG(22.4-H7)</f>
+        <f t="shared" si="0"/>
         <v>1.3138672203691533</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L7">
+        <v>164.36</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>-130.01636412781798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B8">
@@ -697,14 +1964,14 @@
         <v>6.4</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="F8">
         <v>9.4</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60.000010000000003</v>
       </c>
       <c r="H8">
@@ -714,34 +1981,49 @@
         <v>164.29</v>
       </c>
       <c r="J8">
-        <f>LOG(22.4-H8)</f>
+        <f t="shared" si="0"/>
         <v>1.2787536009528289</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="L8">
+        <v>164.29</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>-119.43629885345828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B9">
         <v>-4.0999999999999996</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C23" si="4">C8+10</f>
+        <f t="shared" ref="C9:C23" si="8">C8+10</f>
         <v>80</v>
       </c>
       <c r="D9">
         <v>6.8</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="F9">
         <v>9.3000000000000007</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>70.000010000000003</v>
       </c>
       <c r="H9">
@@ -751,34 +2033,49 @@
         <v>164.22</v>
       </c>
       <c r="J9">
-        <f>LOG(22.4-H9)</f>
+        <f t="shared" si="0"/>
         <v>1.220108088040055</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="L9">
+        <v>164.22</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>-109.59065459648909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B10">
         <v>-3.9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="D10">
         <v>6.4</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="F10">
         <v>9.1999999999999993</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>80.000010000000003</v>
       </c>
       <c r="H10">
@@ -788,34 +2085,49 @@
         <v>164.17</v>
       </c>
       <c r="J10">
-        <f>LOG(22.4-H10)</f>
+        <f t="shared" si="0"/>
         <v>1.2174839442139063</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.16949152542372881</v>
+      </c>
+      <c r="L10">
+        <v>164.17</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>-100.42845112032415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B11">
         <v>-3.6</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="D11">
         <v>6.3</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="F11">
         <v>10.3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>90.000010000000003</v>
       </c>
       <c r="H11">
@@ -825,34 +2137,49 @@
         <v>164.17</v>
       </c>
       <c r="J11">
-        <f>LOG(22.4-H11)</f>
+        <f t="shared" si="0"/>
         <v>1.2405492482825997</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="L11">
+        <v>164.17</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>-91.90224700938154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B12">
         <v>-3.4</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="D12">
         <v>6.4</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F12">
         <v>10.9</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100.00001</v>
       </c>
       <c r="H12">
@@ -862,34 +2189,49 @@
         <v>164.14</v>
       </c>
       <c r="J12">
-        <f>LOG(22.4-H12)</f>
+        <f t="shared" si="0"/>
         <v>1.2041199826559248</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.15625</v>
+      </c>
+      <c r="L12">
+        <v>164.14</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>-83.967894019888291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B13">
         <v>-3</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="D13">
         <v>6.6</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="F13">
         <v>9.3000000000000007</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>110.00001</v>
       </c>
       <c r="H13">
@@ -899,34 +2241,49 @@
         <v>164.12</v>
       </c>
       <c r="J13">
-        <f>LOG(22.4-H13)</f>
+        <f t="shared" si="0"/>
         <v>1.167317334748176</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="L13">
+        <v>164.12</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>-76.584308482558214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B14">
         <v>-2.9</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>120.00001</v>
       </c>
       <c r="H14">
@@ -936,34 +2293,49 @@
         <v>164.12</v>
       </c>
       <c r="J14">
-        <f>LOG(22.4-H14)</f>
+        <f t="shared" si="0"/>
         <v>1.1367205671564067</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.1149425287356322</v>
+      </c>
+      <c r="L14">
+        <v>164.12</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>-69.713258573477731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B15">
         <v>-2.5</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="D15">
         <v>6.7</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="F15">
         <v>10.5</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>130.00001</v>
       </c>
       <c r="H15">
@@ -973,11 +2345,26 @@
         <v>164.11</v>
       </c>
       <c r="J15">
-        <f>LOG(22.4-H15)</f>
+        <f t="shared" si="0"/>
         <v>1.1271047983648075</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L15">
+        <v>164.11</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>-63.319166351699714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>48</v>
       </c>
@@ -985,21 +2372,21 @@
         <v>-1.6</v>
       </c>
       <c r="C16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="D16">
         <v>7.2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="F16">
         <v>10.5</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>140.00001</v>
       </c>
       <c r="H16">
@@ -1009,34 +2396,49 @@
         <v>164.07</v>
       </c>
       <c r="J16">
-        <f>LOG(22.4-H16)</f>
+        <f t="shared" si="0"/>
         <v>1.0644579892269184</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>9.2592592592592587E-2</v>
+      </c>
+      <c r="L16">
+        <v>164.07</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>-57.368923538505904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B17">
         <v>-1.5</v>
       </c>
       <c r="C17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="D17">
         <v>7.8</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="F17">
         <v>11.4</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>150.00001</v>
       </c>
       <c r="H17">
@@ -1046,11 +2448,26 @@
         <v>164.07</v>
       </c>
       <c r="J17">
-        <f>LOG(22.4-H17)</f>
+        <f t="shared" si="0"/>
         <v>1.0413926851582249</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>8.771929824561403E-2</v>
+      </c>
+      <c r="L17">
+        <v>164.07</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>-51.831720084452606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>A17+3</f>
         <v>54</v>
@@ -1059,21 +2476,21 @@
         <v>-1.2</v>
       </c>
       <c r="C18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="D18">
         <v>7.7</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="F18">
         <v>12</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>160.00001</v>
       </c>
       <c r="H18">
@@ -1083,34 +2500,49 @@
         <v>164.08</v>
       </c>
       <c r="J18">
-        <f>LOG(22.4-H18)</f>
+        <f t="shared" si="0"/>
         <v>1.0644579892269184</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>9.2592592592592587E-2</v>
+      </c>
+      <c r="L18">
+        <v>164.08</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>-46.678884636528643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B19">
         <v>-0.7</v>
       </c>
       <c r="C19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="D19">
         <v>7.9</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="F19">
         <v>12.4</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>170.00001</v>
       </c>
       <c r="H19">
@@ -1120,34 +2552,49 @@
         <v>164.08</v>
       </c>
       <c r="J19">
-        <f>LOG(22.4-H19)</f>
+        <f t="shared" si="0"/>
         <v>1.0827853703164501</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>9.7087378640776698E-2</v>
+      </c>
+      <c r="L19">
+        <v>164.08</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>-41.883736079372873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B20">
         <v>-0.1</v>
       </c>
       <c r="C20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="D20">
         <v>7.9</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="F20">
         <v>13.1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>180.00001</v>
       </c>
       <c r="H20">
@@ -1157,34 +2604,49 @@
         <v>164.09</v>
       </c>
       <c r="J20">
-        <f>LOG(22.4-H20)</f>
+        <f t="shared" si="0"/>
         <v>1.0530784434834197</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>9.00900900900901E-2</v>
+      </c>
+      <c r="L20">
+        <v>164.09</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>-37.421445381839135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B21">
         <v>-0.2</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="D21">
         <v>7.6</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="F21">
         <v>13.2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>190.00001</v>
       </c>
       <c r="H21">
@@ -1194,34 +2656,49 @@
         <v>164.1</v>
       </c>
       <c r="J21">
-        <f>LOG(22.4-H21)</f>
+        <f t="shared" si="0"/>
         <v>1.0211892990699381</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>8.4033613445378144E-2</v>
+      </c>
+      <c r="L21">
+        <v>164.1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>190</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>-33.268907033557639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="B22">
         <v>-0.3</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="D22">
         <v>7.9</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="F22">
         <v>13.3</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>200.00001</v>
       </c>
       <c r="H22">
@@ -1231,11 +2708,26 @@
         <v>164.11</v>
       </c>
       <c r="J22">
-        <f>LOG(22.4-H22)</f>
+        <f t="shared" si="0"/>
         <v>1.0086001717619175</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>8.1967213114754106E-2</v>
+      </c>
+      <c r="L22">
+        <v>164.11</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>-29.404619405797561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>72</f>
         <v>72</v>
@@ -1244,21 +2736,21 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="F23">
         <v>13.7</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>210.00001</v>
       </c>
       <c r="H23">
@@ -1268,13 +2760,28 @@
         <v>164.1</v>
       </c>
       <c r="J23">
-        <f>LOG(22.4-H23)</f>
+        <f t="shared" si="0"/>
         <v>0.99122607569249477</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>7.9365079365079361E-2</v>
+      </c>
+      <c r="L23">
+        <v>164.1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>-25.808573417145986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B24">
@@ -1288,14 +2795,14 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="F24">
         <v>13.9</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>220.00001</v>
       </c>
       <c r="H24">
@@ -1305,34 +2812,49 @@
         <v>164.1</v>
       </c>
       <c r="J24">
-        <f>LOG(22.4-H24)</f>
+        <f t="shared" si="0"/>
         <v>0.97312785359969856</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="L24">
+        <v>164.1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>-22.462148927519443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B25">
         <v>1.2</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C30" si="5">C24+10</f>
+        <f t="shared" ref="C25:C30" si="9">C24+10</f>
         <v>250</v>
       </c>
       <c r="D25">
         <v>9.3000000000000007</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>230</v>
       </c>
       <c r="F25">
         <v>13.7</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>230.00001</v>
       </c>
       <c r="H25">
@@ -1342,11 +2864,26 @@
         <v>164.11</v>
       </c>
       <c r="J25">
-        <f>LOG(22.4-H25)</f>
+        <f t="shared" si="0"/>
         <v>0.91381385238371671</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="L25">
+        <v>164.11</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>230</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>-19.348018324041988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>84</v>
       </c>
@@ -1354,21 +2891,21 @@
         <v>1.5</v>
       </c>
       <c r="C26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="D26">
         <v>9.8000000000000007</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="F26">
         <v>13.5</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>240.00001</v>
       </c>
       <c r="H26">
@@ -1378,27 +2915,42 @@
         <v>164.09</v>
       </c>
       <c r="J26">
-        <f>LOG(22.4-H26)</f>
+        <f t="shared" si="0"/>
         <v>0.88081359228079126</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>6.7567567567567557E-2</v>
+      </c>
+      <c r="L26">
+        <v>164.09</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>-16.450056799562127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="B27">
         <v>1.6</v>
       </c>
       <c r="C27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>270</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="F27">
@@ -1415,34 +2967,49 @@
         <v>164.1</v>
       </c>
       <c r="J27">
-        <f>LOG(22.4-H27)</f>
+        <f t="shared" si="0"/>
         <v>0.83884909073725522</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="L27">
+        <v>164.1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>-13.753258859235657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B28">
         <v>1.9</v>
       </c>
       <c r="C28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
       <c r="D28">
         <v>10.199999999999999</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="F28">
         <v>14.3</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>260.00000999999997</v>
       </c>
       <c r="H28">
@@ -1452,34 +3019,49 @@
         <v>164.1</v>
       </c>
       <c r="J28">
-        <f>LOG(22.4-H28)</f>
+        <f t="shared" si="0"/>
         <v>0.81954393554186855</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>6.3291139240506319E-2</v>
+      </c>
+      <c r="L28">
+        <v>164.1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>260</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>-11.243660622849674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="B29">
         <v>1.9</v>
       </c>
       <c r="C29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>290</v>
       </c>
       <c r="D29">
         <v>10.3</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="F29">
         <v>14.6</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>270.00000999999997</v>
       </c>
       <c r="H29">
@@ -1489,11 +3071,26 @@
         <v>164.09</v>
       </c>
       <c r="J29">
-        <f>LOG(22.4-H29)</f>
+        <f t="shared" si="0"/>
         <v>0.77815125038364363</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>6.0975609756097567E-2</v>
+      </c>
+      <c r="L29">
+        <v>164.09</v>
+      </c>
+      <c r="M29">
+        <f>M28+10</f>
+        <v>270</v>
+      </c>
+      <c r="N29">
+        <f>22.4 + (-196 - 22.4 )*EXP(-M29/139)</f>
+        <v>-8.9082675205732755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>A29+3</f>
         <v>96</v>
@@ -1502,21 +3099,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="D30">
         <v>10.7</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="F30">
         <v>14.7</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>280.00000999999997</v>
       </c>
       <c r="H30">
@@ -1526,13 +3123,28 @@
         <v>164.09</v>
       </c>
       <c r="J30">
-        <f>LOG(22.4-H30)</f>
+        <f t="shared" si="0"/>
         <v>0.74818802700620024</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>5.9523809523809521E-2</v>
+      </c>
+      <c r="L30">
+        <v>164.09</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>-6.7349870077472609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B31">
@@ -1546,14 +3158,14 @@
         <v>11</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="F31">
         <v>15</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>290.00000999999997</v>
       </c>
       <c r="H31">
@@ -1563,34 +3175,49 @@
         <v>164.09</v>
       </c>
       <c r="J31">
-        <f>LOG(22.4-H31)</f>
+        <f t="shared" si="0"/>
         <v>0.71600334363479912</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>5.8139534883720929E-2</v>
+      </c>
+      <c r="L31">
+        <v>164.09</v>
+      </c>
+      <c r="M31">
+        <f>M30+10</f>
+        <v>290</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>-4.7125659503135218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B32">
         <v>2.2000000000000002</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:C50" si="6">C31+10</f>
+        <f t="shared" ref="C32:C50" si="10">C31+10</f>
         <v>370</v>
       </c>
       <c r="D32">
         <v>10.8</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="F32">
         <v>14.7</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>300.00000999999997</v>
       </c>
       <c r="H32">
@@ -1600,34 +3227,49 @@
         <v>164.1</v>
       </c>
       <c r="J32">
-        <f>LOG(22.4-H32)</f>
+        <f t="shared" si="0"/>
         <v>0.73239375982296839</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="L32">
+        <v>164.1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>-2.8305323566690639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B33">
         <v>2.6</v>
       </c>
       <c r="C33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>380</v>
       </c>
       <c r="D33">
         <v>11</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>310</v>
       </c>
       <c r="F33">
         <v>15</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>310.00000999999997</v>
       </c>
       <c r="H33">
@@ -1637,34 +3279,49 @@
         <v>164.1</v>
       </c>
       <c r="J33">
-        <f>LOG(22.4-H33)</f>
+        <f t="shared" si="0"/>
         <v>0.69897000433601886</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="L33">
+        <v>164.1</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>310</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>-1.0791411542352911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="B34">
         <v>2.9</v>
       </c>
       <c r="C34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>390</v>
       </c>
       <c r="D34">
         <v>11.1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="F34">
         <v>15.4</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>320.00000999999997</v>
       </c>
       <c r="H34">
@@ -1674,312 +3331,474 @@
         <v>164.8</v>
       </c>
       <c r="J34">
-        <f>LOG(22.4-H34)</f>
+        <f t="shared" si="0"/>
         <v>0.65321251377534373</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>5.5865921787709501E-2</v>
+      </c>
+      <c r="L34">
+        <v>164.8</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>320</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0.55067627002365782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="B35">
         <v>3.2</v>
       </c>
       <c r="C35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="D35">
         <v>11.2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="F35">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>330</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>2.0673590264100135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="B36">
         <v>3.2</v>
       </c>
       <c r="C36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>410</v>
       </c>
       <c r="D36">
         <v>11.1</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="F36">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>340</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>3.4787604197689319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="B37">
         <v>3.2</v>
       </c>
       <c r="C37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>420</v>
       </c>
       <c r="D37">
         <v>11.4</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="F37">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>4.7921886134946625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B38">
         <v>3.4</v>
       </c>
       <c r="C38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>430</v>
       </c>
       <c r="D38">
         <v>11.4</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="F38">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>6.0144444708225144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="B39">
         <v>3.6</v>
       </c>
       <c r="C39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>440</v>
       </c>
       <c r="D39">
         <v>11.5</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="F39">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>370</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>7.1518567693468462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="B40">
         <v>3.9</v>
       </c>
       <c r="C40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>450</v>
       </c>
       <c r="D40">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>380</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>8.2103149711040153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="B41">
         <v>3.7</v>
       </c>
       <c r="C41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>460</v>
       </c>
       <c r="D41">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>390</v>
+      </c>
+      <c r="N41">
+        <f>22.4 + (-196 - 22.4 )*EXP(-M41/139)</f>
+        <v>9.1952997179021043</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="B42">
         <v>3.8</v>
       </c>
       <c r="C42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>470</v>
       </c>
       <c r="D42">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="N42">
+        <f t="shared" ref="N42:N52" si="11">22.4 + (-196 - 22.4 )*EXP(-M42/139)</f>
+        <v>10.111911209800653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="B43">
         <v>3.6</v>
       </c>
       <c r="C43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>480</v>
       </c>
       <c r="D43">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="11"/>
+        <v>10.964895613682705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
       <c r="B44">
         <v>3.8</v>
       </c>
       <c r="C44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>490</v>
       </c>
       <c r="D44">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="11"/>
+        <v>11.758669638661383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="B45">
         <v>4.0999999999999996</v>
       </c>
       <c r="C45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="D45">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>430</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="11"/>
+        <v>12.497343405571163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="B46">
         <v>4.5999999999999996</v>
       </c>
       <c r="C46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>510</v>
       </c>
       <c r="D46">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <f t="shared" si="7"/>
+        <v>440</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="11"/>
+        <v>13.184741728960926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="B47">
         <v>4.8</v>
       </c>
       <c r="C47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>520</v>
       </c>
       <c r="D47">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>450</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="11"/>
+        <v>13.824423921785796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="B48">
         <v>4.5999999999999996</v>
       </c>
       <c r="C48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>530</v>
       </c>
       <c r="D48">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="11"/>
+        <v>14.419702225345487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
       <c r="B49">
         <v>4.5</v>
       </c>
       <c r="C49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>540</v>
       </c>
       <c r="D49">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>470</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="11"/>
+        <v>14.973658959898389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="B50">
         <v>4.5999999999999996</v>
       </c>
       <c r="C50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>550</v>
       </c>
       <c r="D50">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>480</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="11"/>
+        <v>15.489162484756392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>159</v>
       </c>
       <c r="B51">
         <v>4.5</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="7"/>
+        <v>490</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="11"/>
+        <v>15.968882050501016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="11"/>
+        <v>16.41530162022481</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/tempeallen.xlsx
+++ b/data/tempeallen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\GitHub\phys_exp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7D9FAF-E733-4FF3-95E3-4A8226485B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD7FAF1-3F95-438A-A313-1FE379EE79A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9317C390-3D87-4FE5-8449-C6828F30E0E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Temps</t>
   </si>
@@ -65,19 +65,13 @@
     <t>Resistance4</t>
   </si>
   <si>
-    <t>logTempé</t>
-  </si>
-  <si>
-    <t>1/T</t>
-  </si>
-  <si>
-    <t>Resistance4 2</t>
-  </si>
-  <si>
     <t>AllTemps</t>
   </si>
   <si>
     <t>AllTempé</t>
+  </si>
+  <si>
+    <t>Température4K</t>
   </si>
 </sst>
 </file>
@@ -136,1160 +130,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.4554980789213646E-2"/>
-          <c:y val="0.12642449629810898"/>
-          <c:w val="0.94977080130355873"/>
-          <c:h val="0.81630631408733867"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Resistance4 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.20851159230096239"/>
-                  <c:y val="-9.8960338291046959E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$K$2:$K$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>-0.12658227848101264</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.14492753623188406</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.15384615384615385</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.3125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55555555555555558</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.29411764705882354</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17241379310344829</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16949152542372881</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12987012987012986</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1149425287356322</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.2592592592592587E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.771929824561403E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.2592592592592587E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.7087378640776698E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.00900900900901E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.4033613445378144E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.1967213114754106E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.9365079365079361E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.6923076923076927E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.0422535211267609E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.7567567567567557E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.4516129032258063E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.3291139240506319E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.0975609756097567E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.9523809523809521E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.8139534883720929E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.8823529411764705E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.7471264367816098E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.5865921787709501E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$L$2:$L$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>165.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>164.78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>164.54</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>164.36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>164.29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>164.22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>164.17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>164.17</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>164.14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>164.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>164.12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>164.11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>164.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>164.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>164.08</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>164.08</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>164.09</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>164.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>164.11</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>164.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>164.1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>164.11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>164.09</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>164.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>164.1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>164.09</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>164.09</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>164.09</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>164.1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>164.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>164.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF01-45A1-933F-E37B85F0FD78}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1058838303"/>
-        <c:axId val="1316152479"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1058838303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1316152479"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1316152479"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1058838303"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Graphique 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CC9B01-B6EA-11CB-8C54-3A77CF2AD3BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1591,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827CC73B-E7CA-4FC1-B79B-C6102205C8CC}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,19 +466,13 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1670,15 +504,8 @@
         <v>168</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J34" si="0">LOG(22.4-H2)</f>
-        <v>1.481442628502305</v>
-      </c>
-      <c r="K2">
-        <f>1/H2</f>
-        <v>-0.12658227848101264</v>
-      </c>
-      <c r="L2">
-        <v>168</v>
+        <f>H2+273.15</f>
+        <v>265.25</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1721,49 +548,42 @@
         <v>167.4</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
-        <v>1.4668676203541093</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K34" si="1">1/H3</f>
-        <v>-0.14492753623188406</v>
-      </c>
-      <c r="L3">
-        <v>167.4</v>
+        <f>H3+273.15</f>
+        <v>266.25</v>
       </c>
       <c r="M3">
         <f>M2+10</f>
         <v>10</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N40" si="2">22.4 + (-196 - 22.4 )*EXP(-M3/139)</f>
+        <f t="shared" ref="N3:N40" si="0">22.4 + (-196 - 22.4 )*EXP(-M3/139)</f>
         <v>-180.83964455429214</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A51" si="3">A3+3</f>
+        <f t="shared" ref="A4:A51" si="1">A3+3</f>
         <v>6</v>
       </c>
       <c r="B4">
         <v>-5.5</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C7" si="4">C3+10</f>
+        <f t="shared" ref="C4:C7" si="2">C3+10</f>
         <v>20</v>
       </c>
       <c r="D4">
         <v>3.4</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E39" si="5">E3+10</f>
+        <f t="shared" ref="E4:E39" si="3">E3+10</f>
         <v>20</v>
       </c>
       <c r="F4">
         <v>4.4000000000000004</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G34" si="6">G3+10</f>
+        <f t="shared" ref="G4:G34" si="4">G3+10</f>
         <v>20.00001</v>
       </c>
       <c r="H4">
@@ -1773,49 +593,42 @@
         <v>165.05</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>1.4608978427565478</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>-0.15384615384615385</v>
-      </c>
-      <c r="L4">
-        <v>165.05</v>
+        <f>H4+273.15</f>
+        <v>266.64999999999998</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M52" si="7">M3+10</f>
+        <f t="shared" ref="M4:M52" si="5">M3+10</f>
         <v>20</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-166.73165347323723</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B5">
         <v>-5.4</v>
       </c>
       <c r="C5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F5">
         <v>5.9</v>
       </c>
       <c r="G5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30.00001</v>
       </c>
       <c r="H5">
@@ -1825,49 +638,42 @@
         <v>164.78</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>1.4082399653118496</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>-0.3125</v>
-      </c>
-      <c r="L5">
-        <v>164.78</v>
+        <f>H5+273.15</f>
+        <v>269.95</v>
       </c>
       <c r="M5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-153.60297630891159</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B6">
         <v>-5</v>
       </c>
       <c r="C6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="D6">
         <v>5.5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="F6">
         <v>7.2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>40.000010000000003</v>
       </c>
       <c r="H6">
@@ -1877,49 +683,42 @@
         <v>164.54</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1.3579348470004537</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>-2.5</v>
-      </c>
-      <c r="L6">
-        <v>164.54</v>
+        <f>H6+273.15</f>
+        <v>272.75</v>
       </c>
       <c r="M6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-141.38563345018633</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B7">
         <v>-4.5</v>
       </c>
       <c r="C7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="D7">
         <v>5.6</v>
       </c>
       <c r="E7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="F7">
         <v>8.3000000000000007</v>
       </c>
       <c r="G7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>50.000010000000003</v>
       </c>
       <c r="H7">
@@ -1929,28 +728,21 @@
         <v>164.36</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>1.3138672203691533</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="L7">
-        <v>164.36</v>
+        <f>H7+273.15</f>
+        <v>274.95</v>
       </c>
       <c r="M7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-130.01636412781798</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B8">
@@ -1964,14 +756,14 @@
         <v>6.4</v>
       </c>
       <c r="E8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="F8">
         <v>9.4</v>
       </c>
       <c r="G8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>60.000010000000003</v>
       </c>
       <c r="H8">
@@ -1981,49 +773,42 @@
         <v>164.29</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>1.2787536009528289</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="L8">
-        <v>164.29</v>
+        <f>H8+273.15</f>
+        <v>276.54999999999995</v>
       </c>
       <c r="M8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-119.43629885345828</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B9">
         <v>-4.0999999999999996</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C23" si="8">C8+10</f>
+        <f t="shared" ref="C9:C23" si="6">C8+10</f>
         <v>80</v>
       </c>
       <c r="D9">
         <v>6.8</v>
       </c>
       <c r="E9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="F9">
         <v>9.3000000000000007</v>
       </c>
       <c r="G9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>70.000010000000003</v>
       </c>
       <c r="H9">
@@ -2033,49 +818,42 @@
         <v>164.22</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>1.220108088040055</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>0.17241379310344829</v>
-      </c>
-      <c r="L9">
-        <v>164.22</v>
+        <f>H9+273.15</f>
+        <v>278.95</v>
       </c>
       <c r="M9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-109.59065459648909</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B10">
         <v>-3.9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="D10">
         <v>6.4</v>
       </c>
       <c r="E10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="F10">
         <v>9.1999999999999993</v>
       </c>
       <c r="G10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>80.000010000000003</v>
       </c>
       <c r="H10">
@@ -2085,49 +863,42 @@
         <v>164.17</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>1.2174839442139063</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>0.16949152542372881</v>
-      </c>
-      <c r="L10">
-        <v>164.17</v>
+        <f>H10+273.15</f>
+        <v>279.04999999999995</v>
       </c>
       <c r="M10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-100.42845112032415</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B11">
         <v>-3.6</v>
       </c>
       <c r="C11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="D11">
         <v>6.3</v>
       </c>
       <c r="E11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="F11">
         <v>10.3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>90.000010000000003</v>
       </c>
       <c r="H11">
@@ -2137,49 +908,42 @@
         <v>164.17</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
-        <v>1.2405492482825997</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="L11">
-        <v>164.17</v>
+        <f>H11+273.15</f>
+        <v>278.14999999999998</v>
       </c>
       <c r="M11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-91.90224700938154</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B12">
         <v>-3.4</v>
       </c>
       <c r="C12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="D12">
         <v>6.4</v>
       </c>
       <c r="E12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="F12">
         <v>10.9</v>
       </c>
       <c r="G12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>100.00001</v>
       </c>
       <c r="H12">
@@ -2189,49 +953,42 @@
         <v>164.14</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
-        <v>1.2041199826559248</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>0.15625</v>
-      </c>
-      <c r="L12">
-        <v>164.14</v>
+        <f>H12+273.15</f>
+        <v>279.54999999999995</v>
       </c>
       <c r="M12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-83.967894019888291</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B13">
         <v>-3</v>
       </c>
       <c r="C13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="D13">
         <v>6.6</v>
       </c>
       <c r="E13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="F13">
         <v>9.3000000000000007</v>
       </c>
       <c r="G13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>110.00001</v>
       </c>
       <c r="H13">
@@ -2241,49 +998,42 @@
         <v>164.12</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
-        <v>1.167317334748176</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>0.12987012987012986</v>
-      </c>
-      <c r="L13">
-        <v>164.12</v>
+        <f>H13+273.15</f>
+        <v>280.84999999999997</v>
       </c>
       <c r="M13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-76.584308482558214</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B14">
         <v>-2.9</v>
       </c>
       <c r="C14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>120.00001</v>
       </c>
       <c r="H14">
@@ -2293,49 +1043,42 @@
         <v>164.12</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
-        <v>1.1367205671564067</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>0.1149425287356322</v>
-      </c>
-      <c r="L14">
-        <v>164.12</v>
+        <f>H14+273.15</f>
+        <v>281.84999999999997</v>
       </c>
       <c r="M14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-69.713258573477731</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B15">
         <v>-2.5</v>
       </c>
       <c r="C15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="D15">
         <v>6.7</v>
       </c>
       <c r="E15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="F15">
         <v>10.5</v>
       </c>
       <c r="G15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>130.00001</v>
       </c>
       <c r="H15">
@@ -2345,22 +1088,15 @@
         <v>164.11</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
-        <v>1.1271047983648075</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L15">
-        <v>164.11</v>
+        <f>H15+273.15</f>
+        <v>282.14999999999998</v>
       </c>
       <c r="M15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-63.319166351699714</v>
       </c>
     </row>
@@ -2372,21 +1108,21 @@
         <v>-1.6</v>
       </c>
       <c r="C16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="D16">
         <v>7.2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="F16">
         <v>10.5</v>
       </c>
       <c r="G16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>140.00001</v>
       </c>
       <c r="H16">
@@ -2396,49 +1132,42 @@
         <v>164.07</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
-        <v>1.0644579892269184</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="L16">
-        <v>164.07</v>
+        <f>H16+273.15</f>
+        <v>283.95</v>
       </c>
       <c r="M16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-57.368923538505904</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B17">
         <v>-1.5</v>
       </c>
       <c r="C17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="D17">
         <v>7.8</v>
       </c>
       <c r="E17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="F17">
         <v>11.4</v>
       </c>
       <c r="G17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>150.00001</v>
       </c>
       <c r="H17">
@@ -2448,22 +1177,15 @@
         <v>164.07</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
-        <v>1.0413926851582249</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>8.771929824561403E-2</v>
-      </c>
-      <c r="L17">
-        <v>164.07</v>
+        <f>H17+273.15</f>
+        <v>284.54999999999995</v>
       </c>
       <c r="M17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-51.831720084452606</v>
       </c>
     </row>
@@ -2476,21 +1198,21 @@
         <v>-1.2</v>
       </c>
       <c r="C18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="D18">
         <v>7.7</v>
       </c>
       <c r="E18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="F18">
         <v>12</v>
       </c>
       <c r="G18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>160.00001</v>
       </c>
       <c r="H18">
@@ -2500,49 +1222,42 @@
         <v>164.08</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
-        <v>1.0644579892269184</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>9.2592592592592587E-2</v>
-      </c>
-      <c r="L18">
-        <v>164.08</v>
+        <f>H18+273.15</f>
+        <v>283.95</v>
       </c>
       <c r="M18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-46.678884636528643</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B19">
         <v>-0.7</v>
       </c>
       <c r="C19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="D19">
         <v>7.9</v>
       </c>
       <c r="E19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="F19">
         <v>12.4</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>170.00001</v>
       </c>
       <c r="H19">
@@ -2552,49 +1267,42 @@
         <v>164.08</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
-        <v>1.0827853703164501</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>9.7087378640776698E-2</v>
-      </c>
-      <c r="L19">
-        <v>164.08</v>
+        <f>H19+273.15</f>
+        <v>283.45</v>
       </c>
       <c r="M19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-41.883736079372873</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B20">
         <v>-0.1</v>
       </c>
       <c r="C20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="D20">
         <v>7.9</v>
       </c>
       <c r="E20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="F20">
         <v>13.1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>180.00001</v>
       </c>
       <c r="H20">
@@ -2604,49 +1312,42 @@
         <v>164.09</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
-        <v>1.0530784434834197</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
-        <v>9.00900900900901E-2</v>
-      </c>
-      <c r="L20">
-        <v>164.09</v>
+        <f>H20+273.15</f>
+        <v>284.25</v>
       </c>
       <c r="M20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-37.421445381839135</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B21">
         <v>-0.2</v>
       </c>
       <c r="C21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="D21">
         <v>7.6</v>
       </c>
       <c r="E21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="F21">
         <v>13.2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>190.00001</v>
       </c>
       <c r="H21">
@@ -2656,49 +1357,42 @@
         <v>164.1</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
-        <v>1.0211892990699381</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
-        <v>8.4033613445378144E-2</v>
-      </c>
-      <c r="L21">
-        <v>164.1</v>
+        <f>H21+273.15</f>
+        <v>285.04999999999995</v>
       </c>
       <c r="M21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-33.268907033557639</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B22">
         <v>-0.3</v>
       </c>
       <c r="C22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="D22">
         <v>7.9</v>
       </c>
       <c r="E22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="F22">
         <v>13.3</v>
       </c>
       <c r="G22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>200.00001</v>
       </c>
       <c r="H22">
@@ -2708,22 +1402,15 @@
         <v>164.11</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
-        <v>1.0086001717619175</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>8.1967213114754106E-2</v>
-      </c>
-      <c r="L22">
-        <v>164.11</v>
+        <f>H22+273.15</f>
+        <v>285.34999999999997</v>
       </c>
       <c r="M22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-29.404619405797561</v>
       </c>
     </row>
@@ -2736,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="F23">
         <v>13.7</v>
       </c>
       <c r="G23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>210.00001</v>
       </c>
       <c r="H23">
@@ -2760,28 +1447,21 @@
         <v>164.1</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
-        <v>0.99122607569249477</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>7.9365079365079361E-2</v>
-      </c>
-      <c r="L23">
-        <v>164.1</v>
+        <f>H23+273.15</f>
+        <v>285.75</v>
       </c>
       <c r="M23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-25.808573417145986</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B24">
@@ -2795,14 +1475,14 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="E24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="F24">
         <v>13.9</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>220.00001</v>
       </c>
       <c r="H24">
@@ -2812,49 +1492,42 @@
         <v>164.1</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
-        <v>0.97312785359969856</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L24">
-        <v>164.1</v>
+        <f>H24+273.15</f>
+        <v>286.14999999999998</v>
       </c>
       <c r="M24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-22.462148927519443</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B25">
         <v>1.2</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C30" si="9">C24+10</f>
+        <f t="shared" ref="C25:C30" si="7">C24+10</f>
         <v>250</v>
       </c>
       <c r="D25">
         <v>9.3000000000000007</v>
       </c>
       <c r="E25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="F25">
         <v>13.7</v>
       </c>
       <c r="G25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>230.00001</v>
       </c>
       <c r="H25">
@@ -2864,22 +1537,15 @@
         <v>164.11</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
-        <v>0.91381385238371671</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="L25">
-        <v>164.11</v>
+        <f>H25+273.15</f>
+        <v>287.34999999999997</v>
       </c>
       <c r="M25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>230</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-19.348018324041988</v>
       </c>
     </row>
@@ -2891,21 +1557,21 @@
         <v>1.5</v>
       </c>
       <c r="C26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>260</v>
       </c>
       <c r="D26">
         <v>9.8000000000000007</v>
       </c>
       <c r="E26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="F26">
         <v>13.5</v>
       </c>
       <c r="G26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>240.00001</v>
       </c>
       <c r="H26">
@@ -2915,42 +1581,35 @@
         <v>164.09</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
-        <v>0.88081359228079126</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="1"/>
-        <v>6.7567567567567557E-2</v>
-      </c>
-      <c r="L26">
-        <v>164.09</v>
+        <f>H26+273.15</f>
+        <v>287.95</v>
       </c>
       <c r="M26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-16.450056799562127</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B27">
         <v>1.6</v>
       </c>
       <c r="C27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
       <c r="E27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="F27">
@@ -2967,49 +1626,42 @@
         <v>164.1</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
-        <v>0.83884909073725522</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="1"/>
-        <v>6.4516129032258063E-2</v>
-      </c>
-      <c r="L27">
-        <v>164.1</v>
+        <f>H27+273.15</f>
+        <v>288.64999999999998</v>
       </c>
       <c r="M27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-13.753258859235657</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B28">
         <v>1.9</v>
       </c>
       <c r="C28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>280</v>
       </c>
       <c r="D28">
         <v>10.199999999999999</v>
       </c>
       <c r="E28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="F28">
         <v>14.3</v>
       </c>
       <c r="G28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>260.00000999999997</v>
       </c>
       <c r="H28">
@@ -3019,49 +1671,42 @@
         <v>164.1</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
-        <v>0.81954393554186855</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="1"/>
-        <v>6.3291139240506319E-2</v>
-      </c>
-      <c r="L28">
-        <v>164.1</v>
+        <f>H28+273.15</f>
+        <v>288.95</v>
       </c>
       <c r="M28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-11.243660622849674</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B29">
         <v>1.9</v>
       </c>
       <c r="C29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
       <c r="D29">
         <v>10.3</v>
       </c>
       <c r="E29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="F29">
         <v>14.6</v>
       </c>
       <c r="G29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>270.00000999999997</v>
       </c>
       <c r="H29">
@@ -3071,15 +1716,8 @@
         <v>164.09</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
-        <v>0.77815125038364363</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>6.0975609756097567E-2</v>
-      </c>
-      <c r="L29">
-        <v>164.09</v>
+        <f>H29+273.15</f>
+        <v>289.54999999999995</v>
       </c>
       <c r="M29">
         <f>M28+10</f>
@@ -3099,21 +1737,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="D30">
         <v>10.7</v>
       </c>
       <c r="E30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="F30">
         <v>14.7</v>
       </c>
       <c r="G30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>280.00000999999997</v>
       </c>
       <c r="H30">
@@ -3123,28 +1761,21 @@
         <v>164.09</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
-        <v>0.74818802700620024</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="1"/>
-        <v>5.9523809523809521E-2</v>
-      </c>
-      <c r="L30">
-        <v>164.09</v>
+        <f>H30+273.15</f>
+        <v>289.95</v>
       </c>
       <c r="M30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-6.7349870077472609</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B31">
@@ -3158,14 +1789,14 @@
         <v>11</v>
       </c>
       <c r="E31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
       <c r="F31">
         <v>15</v>
       </c>
       <c r="G31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>290.00000999999997</v>
       </c>
       <c r="H31">
@@ -3175,49 +1806,42 @@
         <v>164.09</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
-        <v>0.71600334363479912</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
-        <v>5.8139534883720929E-2</v>
-      </c>
-      <c r="L31">
-        <v>164.09</v>
+        <f>H31+273.15</f>
+        <v>290.34999999999997</v>
       </c>
       <c r="M31">
         <f>M30+10</f>
         <v>290</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-4.7125659503135218</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B32">
         <v>2.2000000000000002</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:C50" si="10">C31+10</f>
+        <f t="shared" ref="C32:C50" si="8">C31+10</f>
         <v>370</v>
       </c>
       <c r="D32">
         <v>10.8</v>
       </c>
       <c r="E32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="F32">
         <v>14.7</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>300.00000999999997</v>
       </c>
       <c r="H32">
@@ -3227,49 +1851,42 @@
         <v>164.1</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
-        <v>0.73239375982296839</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="1"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="L32">
-        <v>164.1</v>
+        <f>H32+273.15</f>
+        <v>290.14999999999998</v>
       </c>
       <c r="M32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-2.8305323566690639</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B33">
         <v>2.6</v>
       </c>
       <c r="C33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>380</v>
       </c>
       <c r="D33">
         <v>11</v>
       </c>
       <c r="E33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>310</v>
       </c>
       <c r="F33">
         <v>15</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>310.00000999999997</v>
       </c>
       <c r="H33">
@@ -3279,49 +1896,42 @@
         <v>164.1</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
-        <v>0.69897000433601886</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="1"/>
-        <v>5.7471264367816098E-2</v>
-      </c>
-      <c r="L33">
-        <v>164.1</v>
+        <f>H33+273.15</f>
+        <v>290.54999999999995</v>
       </c>
       <c r="M33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>310</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-1.0791411542352911</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B34">
         <v>2.9</v>
       </c>
       <c r="C34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>390</v>
       </c>
       <c r="D34">
         <v>11.1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
       <c r="F34">
         <v>15.4</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>320.00000999999997</v>
       </c>
       <c r="H34">
@@ -3331,221 +1941,214 @@
         <v>164.8</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
-        <v>0.65321251377534373</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="1"/>
-        <v>5.5865921787709501E-2</v>
-      </c>
-      <c r="L34">
-        <v>164.8</v>
+        <f>H34+273.15</f>
+        <v>291.04999999999995</v>
       </c>
       <c r="M34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.55067627002365782</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B35">
         <v>3.2</v>
       </c>
       <c r="C35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="D35">
         <v>11.2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="F35">
         <v>15.7</v>
       </c>
       <c r="M35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.0673590264100135</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B36">
         <v>3.2</v>
       </c>
       <c r="C36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>410</v>
       </c>
       <c r="D36">
         <v>11.1</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>340</v>
       </c>
       <c r="F36">
         <v>15.8</v>
       </c>
       <c r="M36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.4787604197689319</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B37">
         <v>3.2</v>
       </c>
       <c r="C37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
       <c r="D37">
         <v>11.4</v>
       </c>
       <c r="E37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
       <c r="F37">
         <v>15.6</v>
       </c>
       <c r="M37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4.7921886134946625</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B38">
         <v>3.4</v>
       </c>
       <c r="C38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>430</v>
       </c>
       <c r="D38">
         <v>11.4</v>
       </c>
       <c r="E38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="F38">
         <v>15.8</v>
       </c>
       <c r="M38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.0144444708225144</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B39">
         <v>3.6</v>
       </c>
       <c r="C39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>440</v>
       </c>
       <c r="D39">
         <v>11.5</v>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>370</v>
       </c>
       <c r="F39">
         <v>16</v>
       </c>
       <c r="M39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7.1518567693468462</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B40">
         <v>3.9</v>
       </c>
       <c r="C40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>450</v>
       </c>
       <c r="D40">
         <v>11.8</v>
       </c>
       <c r="M40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8.2103149711040153</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="B41">
         <v>3.7</v>
       </c>
       <c r="C41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
       <c r="D41">
         <v>12.8</v>
       </c>
       <c r="M41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>390</v>
       </c>
       <c r="N41">
@@ -3555,250 +2158,249 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="B42">
         <v>3.8</v>
       </c>
       <c r="C42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>470</v>
       </c>
       <c r="D42">
         <v>12.6</v>
       </c>
       <c r="M42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="N42">
-        <f t="shared" ref="N42:N52" si="11">22.4 + (-196 - 22.4 )*EXP(-M42/139)</f>
+        <f t="shared" ref="N42:N52" si="9">22.4 + (-196 - 22.4 )*EXP(-M42/139)</f>
         <v>10.111911209800653</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="B43">
         <v>3.6</v>
       </c>
       <c r="C43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="D43">
         <v>12.2</v>
       </c>
       <c r="M43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>410</v>
       </c>
       <c r="N43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>10.964895613682705</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="B44">
         <v>3.8</v>
       </c>
       <c r="C44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>490</v>
       </c>
       <c r="D44">
         <v>11.2</v>
       </c>
       <c r="M44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="N44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.758669638661383</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="B45">
         <v>4.0999999999999996</v>
       </c>
       <c r="C45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="D45">
         <v>12.4</v>
       </c>
       <c r="M45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>430</v>
       </c>
       <c r="N45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>12.497343405571163</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="B46">
         <v>4.5999999999999996</v>
       </c>
       <c r="C46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>510</v>
       </c>
       <c r="D46">
         <v>12.3</v>
       </c>
       <c r="M46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>440</v>
       </c>
       <c r="N46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>13.184741728960926</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>147</v>
       </c>
       <c r="B47">
         <v>4.8</v>
       </c>
       <c r="C47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
       <c r="D47">
         <v>12.5</v>
       </c>
       <c r="M47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>450</v>
       </c>
       <c r="N47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>13.824423921785796</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="B48">
         <v>4.5999999999999996</v>
       </c>
       <c r="C48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
       <c r="D48">
         <v>12.8</v>
       </c>
       <c r="M48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>460</v>
       </c>
       <c r="N48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>14.419702225345487</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>153</v>
       </c>
       <c r="B49">
         <v>4.5</v>
       </c>
       <c r="C49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
       <c r="D49">
         <v>13.1</v>
       </c>
       <c r="M49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>470</v>
       </c>
       <c r="N49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>14.973658959898389</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="B50">
         <v>4.5999999999999996</v>
       </c>
       <c r="C50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
       <c r="D50">
         <v>13.7</v>
       </c>
       <c r="M50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
       <c r="N50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>15.489162484756392</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>159</v>
       </c>
       <c r="B51">
         <v>4.5</v>
       </c>
       <c r="M51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>490</v>
       </c>
       <c r="N51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>15.968882050501016</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="N52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>16.41530162022481</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/tempeallen.xlsx
+++ b/data/tempeallen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\GitHub\phys_exp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD7FAF1-3F95-438A-A313-1FE379EE79A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E96F3C-AC1A-4E20-8ACA-7FF6C46D0509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9317C390-3D87-4FE5-8449-C6828F30E0E4}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827CC73B-E7CA-4FC1-B79B-C6102205C8CC}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +504,7 @@
         <v>168</v>
       </c>
       <c r="J2">
-        <f>H2+273.15</f>
+        <f t="shared" ref="J2:J34" si="0">H2+273.15</f>
         <v>265.25</v>
       </c>
       <c r="M2">
@@ -548,7 +548,7 @@
         <v>167.4</v>
       </c>
       <c r="J3">
-        <f>H3+273.15</f>
+        <f t="shared" si="0"/>
         <v>266.25</v>
       </c>
       <c r="M3">
@@ -556,34 +556,34 @@
         <v>10</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N40" si="0">22.4 + (-196 - 22.4 )*EXP(-M3/139)</f>
+        <f t="shared" ref="N3:N40" si="1">22.4 + (-196 - 22.4 )*EXP(-M3/139)</f>
         <v>-180.83964455429214</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A51" si="1">A3+3</f>
+        <f t="shared" ref="A4:A51" si="2">A3+3</f>
         <v>6</v>
       </c>
       <c r="B4">
         <v>-5.5</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C7" si="2">C3+10</f>
+        <f t="shared" ref="C4:C7" si="3">C3+10</f>
         <v>20</v>
       </c>
       <c r="D4">
         <v>3.4</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E39" si="3">E3+10</f>
+        <f t="shared" ref="E4:E39" si="4">E3+10</f>
         <v>20</v>
       </c>
       <c r="F4">
         <v>4.4000000000000004</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G34" si="4">G3+10</f>
+        <f t="shared" ref="G4:G34" si="5">G3+10</f>
         <v>20.00001</v>
       </c>
       <c r="H4">
@@ -593,42 +593,42 @@
         <v>165.05</v>
       </c>
       <c r="J4">
-        <f>H4+273.15</f>
+        <f t="shared" si="0"/>
         <v>266.64999999999998</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M52" si="5">M3+10</f>
+        <f t="shared" ref="M4:M52" si="6">M3+10</f>
         <v>20</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-166.73165347323723</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B5">
         <v>-5.4</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="F5">
         <v>5.9</v>
       </c>
       <c r="G5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.00001</v>
       </c>
       <c r="H5">
@@ -638,42 +638,42 @@
         <v>164.78</v>
       </c>
       <c r="J5">
-        <f>H5+273.15</f>
+        <f t="shared" si="0"/>
         <v>269.95</v>
       </c>
       <c r="M5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-153.60297630891159</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B6">
         <v>-5</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="D6">
         <v>5.5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F6">
         <v>7.2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.000010000000003</v>
       </c>
       <c r="H6">
@@ -683,42 +683,42 @@
         <v>164.54</v>
       </c>
       <c r="J6">
-        <f>H6+273.15</f>
+        <f t="shared" si="0"/>
         <v>272.75</v>
       </c>
       <c r="M6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-141.38563345018633</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B7">
         <v>-4.5</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="D7">
         <v>5.6</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F7">
         <v>8.3000000000000007</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50.000010000000003</v>
       </c>
       <c r="H7">
@@ -728,21 +728,21 @@
         <v>164.36</v>
       </c>
       <c r="J7">
-        <f>H7+273.15</f>
+        <f t="shared" si="0"/>
         <v>274.95</v>
       </c>
       <c r="M7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-130.01636412781798</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B8">
@@ -756,14 +756,14 @@
         <v>6.4</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F8">
         <v>9.4</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.000010000000003</v>
       </c>
       <c r="H8">
@@ -773,42 +773,42 @@
         <v>164.29</v>
       </c>
       <c r="J8">
-        <f>H8+273.15</f>
+        <f t="shared" si="0"/>
         <v>276.54999999999995</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-119.43629885345828</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B9">
         <v>-4.0999999999999996</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C23" si="6">C8+10</f>
+        <f t="shared" ref="C9:C23" si="7">C8+10</f>
         <v>80</v>
       </c>
       <c r="D9">
         <v>6.8</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="F9">
         <v>9.3000000000000007</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70.000010000000003</v>
       </c>
       <c r="H9">
@@ -818,42 +818,42 @@
         <v>164.22</v>
       </c>
       <c r="J9">
-        <f>H9+273.15</f>
+        <f t="shared" si="0"/>
         <v>278.95</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-109.59065459648909</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B10">
         <v>-3.9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="D10">
         <v>6.4</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="F10">
         <v>9.1999999999999993</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.000010000000003</v>
       </c>
       <c r="H10">
@@ -863,42 +863,42 @@
         <v>164.17</v>
       </c>
       <c r="J10">
-        <f>H10+273.15</f>
+        <f t="shared" si="0"/>
         <v>279.04999999999995</v>
       </c>
       <c r="M10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-100.42845112032415</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B11">
         <v>-3.6</v>
       </c>
       <c r="C11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="D11">
         <v>6.3</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="F11">
         <v>10.3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90.000010000000003</v>
       </c>
       <c r="H11">
@@ -908,42 +908,42 @@
         <v>164.17</v>
       </c>
       <c r="J11">
-        <f>H11+273.15</f>
+        <f t="shared" si="0"/>
         <v>278.14999999999998</v>
       </c>
       <c r="M11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-91.90224700938154</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B12">
         <v>-3.4</v>
       </c>
       <c r="C12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="D12">
         <v>6.4</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F12">
         <v>10.9</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100.00001</v>
       </c>
       <c r="H12">
@@ -953,42 +953,42 @@
         <v>164.14</v>
       </c>
       <c r="J12">
-        <f>H12+273.15</f>
+        <f t="shared" si="0"/>
         <v>279.54999999999995</v>
       </c>
       <c r="M12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-83.967894019888291</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B13">
         <v>-3</v>
       </c>
       <c r="C13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="D13">
         <v>6.6</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="F13">
         <v>9.3000000000000007</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110.00001</v>
       </c>
       <c r="H13">
@@ -998,42 +998,42 @@
         <v>164.12</v>
       </c>
       <c r="J13">
-        <f>H13+273.15</f>
+        <f t="shared" si="0"/>
         <v>280.84999999999997</v>
       </c>
       <c r="M13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-76.584308482558214</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B14">
         <v>-2.9</v>
       </c>
       <c r="C14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120.00001</v>
       </c>
       <c r="H14">
@@ -1043,42 +1043,42 @@
         <v>164.12</v>
       </c>
       <c r="J14">
-        <f>H14+273.15</f>
+        <f t="shared" si="0"/>
         <v>281.84999999999997</v>
       </c>
       <c r="M14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-69.713258573477731</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B15">
         <v>-2.5</v>
       </c>
       <c r="C15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="D15">
         <v>6.7</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="F15">
         <v>10.5</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>130.00001</v>
       </c>
       <c r="H15">
@@ -1088,15 +1088,15 @@
         <v>164.11</v>
       </c>
       <c r="J15">
-        <f>H15+273.15</f>
+        <f t="shared" si="0"/>
         <v>282.14999999999998</v>
       </c>
       <c r="M15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-63.319166351699714</v>
       </c>
     </row>
@@ -1108,21 +1108,21 @@
         <v>-1.6</v>
       </c>
       <c r="C16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="D16">
         <v>7.2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="F16">
         <v>10.5</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140.00001</v>
       </c>
       <c r="H16">
@@ -1132,42 +1132,42 @@
         <v>164.07</v>
       </c>
       <c r="J16">
-        <f>H16+273.15</f>
+        <f t="shared" si="0"/>
         <v>283.95</v>
       </c>
       <c r="M16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-57.368923538505904</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B17">
         <v>-1.5</v>
       </c>
       <c r="C17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="D17">
         <v>7.8</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="F17">
         <v>11.4</v>
       </c>
       <c r="G17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150.00001</v>
       </c>
       <c r="H17">
@@ -1177,15 +1177,15 @@
         <v>164.07</v>
       </c>
       <c r="J17">
-        <f>H17+273.15</f>
+        <f t="shared" si="0"/>
         <v>284.54999999999995</v>
       </c>
       <c r="M17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-51.831720084452606</v>
       </c>
     </row>
@@ -1198,21 +1198,21 @@
         <v>-1.2</v>
       </c>
       <c r="C18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
       <c r="D18">
         <v>7.7</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="F18">
         <v>12</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>160.00001</v>
       </c>
       <c r="H18">
@@ -1222,42 +1222,42 @@
         <v>164.08</v>
       </c>
       <c r="J18">
-        <f>H18+273.15</f>
+        <f t="shared" si="0"/>
         <v>283.95</v>
       </c>
       <c r="M18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-46.678884636528643</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B19">
         <v>-0.7</v>
       </c>
       <c r="C19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="D19">
         <v>7.9</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>170</v>
       </c>
       <c r="F19">
         <v>12.4</v>
       </c>
       <c r="G19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>170.00001</v>
       </c>
       <c r="H19">
@@ -1267,42 +1267,42 @@
         <v>164.08</v>
       </c>
       <c r="J19">
-        <f>H19+273.15</f>
+        <f t="shared" si="0"/>
         <v>283.45</v>
       </c>
       <c r="M19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-41.883736079372873</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B20">
         <v>-0.1</v>
       </c>
       <c r="C20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
       <c r="D20">
         <v>7.9</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="F20">
         <v>13.1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>180.00001</v>
       </c>
       <c r="H20">
@@ -1312,42 +1312,42 @@
         <v>164.09</v>
       </c>
       <c r="J20">
-        <f>H20+273.15</f>
+        <f t="shared" si="0"/>
         <v>284.25</v>
       </c>
       <c r="M20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-37.421445381839135</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B21">
         <v>-0.2</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="D21">
         <v>7.6</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
       <c r="F21">
         <v>13.2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>190.00001</v>
       </c>
       <c r="H21">
@@ -1357,42 +1357,42 @@
         <v>164.1</v>
       </c>
       <c r="J21">
-        <f>H21+273.15</f>
+        <f t="shared" si="0"/>
         <v>285.04999999999995</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-33.268907033557639</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B22">
         <v>-0.3</v>
       </c>
       <c r="C22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>210</v>
       </c>
       <c r="D22">
         <v>7.9</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="F22">
         <v>13.3</v>
       </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200.00001</v>
       </c>
       <c r="H22">
@@ -1402,15 +1402,15 @@
         <v>164.11</v>
       </c>
       <c r="J22">
-        <f>H22+273.15</f>
+        <f t="shared" si="0"/>
         <v>285.34999999999997</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-29.404619405797561</v>
       </c>
     </row>
@@ -1423,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>220</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="F23">
         <v>13.7</v>
       </c>
       <c r="G23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210.00001</v>
       </c>
       <c r="H23">
@@ -1447,21 +1447,21 @@
         <v>164.1</v>
       </c>
       <c r="J23">
-        <f>H23+273.15</f>
+        <f t="shared" si="0"/>
         <v>285.75</v>
       </c>
       <c r="M23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-25.808573417145986</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B24">
@@ -1475,14 +1475,14 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="F24">
         <v>13.9</v>
       </c>
       <c r="G24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>220.00001</v>
       </c>
       <c r="H24">
@@ -1492,42 +1492,42 @@
         <v>164.1</v>
       </c>
       <c r="J24">
-        <f>H24+273.15</f>
+        <f t="shared" si="0"/>
         <v>286.14999999999998</v>
       </c>
       <c r="M24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-22.462148927519443</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B25">
         <v>1.2</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C30" si="7">C24+10</f>
+        <f t="shared" ref="C25:C30" si="8">C24+10</f>
         <v>250</v>
       </c>
       <c r="D25">
         <v>9.3000000000000007</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>230</v>
       </c>
       <c r="F25">
         <v>13.7</v>
       </c>
       <c r="G25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>230.00001</v>
       </c>
       <c r="H25">
@@ -1537,15 +1537,15 @@
         <v>164.11</v>
       </c>
       <c r="J25">
-        <f>H25+273.15</f>
+        <f t="shared" si="0"/>
         <v>287.34999999999997</v>
       </c>
       <c r="M25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>230</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-19.348018324041988</v>
       </c>
     </row>
@@ -1557,21 +1557,21 @@
         <v>1.5</v>
       </c>
       <c r="C26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>260</v>
       </c>
       <c r="D26">
         <v>9.8000000000000007</v>
       </c>
       <c r="E26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="F26">
         <v>13.5</v>
       </c>
       <c r="G26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>240.00001</v>
       </c>
       <c r="H26">
@@ -1581,35 +1581,35 @@
         <v>164.09</v>
       </c>
       <c r="J26">
-        <f>H26+273.15</f>
+        <f t="shared" si="0"/>
         <v>287.95</v>
       </c>
       <c r="M26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-16.450056799562127</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B27">
         <v>1.6</v>
       </c>
       <c r="C27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="F27">
@@ -1626,42 +1626,42 @@
         <v>164.1</v>
       </c>
       <c r="J27">
-        <f>H27+273.15</f>
+        <f t="shared" si="0"/>
         <v>288.64999999999998</v>
       </c>
       <c r="M27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-13.753258859235657</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B28">
         <v>1.9</v>
       </c>
       <c r="C28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>280</v>
       </c>
       <c r="D28">
         <v>10.199999999999999</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="F28">
         <v>14.3</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>260.00000999999997</v>
       </c>
       <c r="H28">
@@ -1671,42 +1671,42 @@
         <v>164.1</v>
       </c>
       <c r="J28">
-        <f>H28+273.15</f>
+        <f t="shared" si="0"/>
         <v>288.95</v>
       </c>
       <c r="M28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>260</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11.243660622849674</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B29">
         <v>1.9</v>
       </c>
       <c r="C29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>290</v>
       </c>
       <c r="D29">
         <v>10.3</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="F29">
         <v>14.6</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>270.00000999999997</v>
       </c>
       <c r="H29">
@@ -1716,7 +1716,7 @@
         <v>164.09</v>
       </c>
       <c r="J29">
-        <f>H29+273.15</f>
+        <f t="shared" si="0"/>
         <v>289.54999999999995</v>
       </c>
       <c r="M29">
@@ -1737,21 +1737,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="D30">
         <v>10.7</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="F30">
         <v>14.7</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>280.00000999999997</v>
       </c>
       <c r="H30">
@@ -1761,21 +1761,21 @@
         <v>164.09</v>
       </c>
       <c r="J30">
-        <f>H30+273.15</f>
+        <f t="shared" si="0"/>
         <v>289.95</v>
       </c>
       <c r="M30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.7349870077472609</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B31">
@@ -1789,14 +1789,14 @@
         <v>11</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="F31">
         <v>15</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>290.00000999999997</v>
       </c>
       <c r="H31">
@@ -1806,7 +1806,7 @@
         <v>164.09</v>
       </c>
       <c r="J31">
-        <f>H31+273.15</f>
+        <f t="shared" si="0"/>
         <v>290.34999999999997</v>
       </c>
       <c r="M31">
@@ -1814,34 +1814,34 @@
         <v>290</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.7125659503135218</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="B32">
         <v>2.2000000000000002</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:C50" si="8">C31+10</f>
+        <f t="shared" ref="C32:C50" si="9">C31+10</f>
         <v>370</v>
       </c>
       <c r="D32">
         <v>10.8</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="F32">
         <v>14.7</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>300.00000999999997</v>
       </c>
       <c r="H32">
@@ -1851,42 +1851,42 @@
         <v>164.1</v>
       </c>
       <c r="J32">
-        <f>H32+273.15</f>
+        <f t="shared" si="0"/>
         <v>290.14999999999998</v>
       </c>
       <c r="M32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.8305323566690639</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="B33">
         <v>2.6</v>
       </c>
       <c r="C33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>380</v>
       </c>
       <c r="D33">
         <v>11</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="F33">
         <v>15</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>310.00000999999997</v>
       </c>
       <c r="H33">
@@ -1896,42 +1896,42 @@
         <v>164.1</v>
       </c>
       <c r="J33">
-        <f>H33+273.15</f>
+        <f t="shared" si="0"/>
         <v>290.54999999999995</v>
       </c>
       <c r="M33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>310</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0791411542352911</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="B34">
         <v>2.9</v>
       </c>
       <c r="C34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>390</v>
       </c>
       <c r="D34">
         <v>11.1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="F34">
         <v>15.4</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>320.00000999999997</v>
       </c>
       <c r="H34">
@@ -1941,214 +1941,220 @@
         <v>164.8</v>
       </c>
       <c r="J34">
-        <f>H34+273.15</f>
+        <f t="shared" si="0"/>
         <v>291.04999999999995</v>
       </c>
       <c r="M34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55067627002365782</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="B35">
         <v>3.2</v>
       </c>
       <c r="C35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="D35">
         <v>11.2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>330</v>
       </c>
       <c r="F35">
         <v>15.7</v>
       </c>
+      <c r="I35">
+        <v>207</v>
+      </c>
+      <c r="J35">
+        <v>77.36</v>
+      </c>
       <c r="M35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>330</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0673590264100135</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="B36">
         <v>3.2</v>
       </c>
       <c r="C36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="D36">
         <v>11.1</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>340</v>
       </c>
       <c r="F36">
         <v>15.8</v>
       </c>
       <c r="M36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>340</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4787604197689319</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="B37">
         <v>3.2</v>
       </c>
       <c r="C37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>420</v>
       </c>
       <c r="D37">
         <v>11.4</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
       <c r="F37">
         <v>15.6</v>
       </c>
       <c r="M37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7921886134946625</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="B38">
         <v>3.4</v>
       </c>
       <c r="C38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>430</v>
       </c>
       <c r="D38">
         <v>11.4</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
       <c r="F38">
         <v>15.8</v>
       </c>
       <c r="M38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0144444708225144</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="B39">
         <v>3.6</v>
       </c>
       <c r="C39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>440</v>
       </c>
       <c r="D39">
         <v>11.5</v>
       </c>
       <c r="E39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>370</v>
       </c>
       <c r="F39">
         <v>16</v>
       </c>
       <c r="M39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>370</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1518567693468462</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="B40">
         <v>3.9</v>
       </c>
       <c r="C40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>450</v>
       </c>
       <c r="D40">
         <v>11.8</v>
       </c>
       <c r="M40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2103149711040153</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="B41">
         <v>3.7</v>
       </c>
       <c r="C41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
       <c r="D41">
         <v>12.8</v>
       </c>
       <c r="M41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="N41">
@@ -2158,244 +2164,244 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B42">
         <v>3.8</v>
       </c>
       <c r="C42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>470</v>
       </c>
       <c r="D42">
         <v>12.6</v>
       </c>
       <c r="M42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="N42">
-        <f t="shared" ref="N42:N52" si="9">22.4 + (-196 - 22.4 )*EXP(-M42/139)</f>
+        <f t="shared" ref="N42:N52" si="10">22.4 + (-196 - 22.4 )*EXP(-M42/139)</f>
         <v>10.111911209800653</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B43">
         <v>3.6</v>
       </c>
       <c r="C43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>480</v>
       </c>
       <c r="D43">
         <v>12.2</v>
       </c>
       <c r="M43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="N43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.964895613682705</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B44">
         <v>3.8</v>
       </c>
       <c r="C44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>490</v>
       </c>
       <c r="D44">
         <v>11.2</v>
       </c>
       <c r="M44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
       <c r="N44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.758669638661383</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B45">
         <v>4.0999999999999996</v>
       </c>
       <c r="C45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>500</v>
       </c>
       <c r="D45">
         <v>12.4</v>
       </c>
       <c r="M45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
       <c r="N45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.497343405571163</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B46">
         <v>4.5999999999999996</v>
       </c>
       <c r="C46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>510</v>
       </c>
       <c r="D46">
         <v>12.3</v>
       </c>
       <c r="M46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
       <c r="N46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.184741728960926</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B47">
         <v>4.8</v>
       </c>
       <c r="C47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>520</v>
       </c>
       <c r="D47">
         <v>12.5</v>
       </c>
       <c r="M47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>450</v>
       </c>
       <c r="N47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.824423921785796</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B48">
         <v>4.5999999999999996</v>
       </c>
       <c r="C48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>530</v>
       </c>
       <c r="D48">
         <v>12.8</v>
       </c>
       <c r="M48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>460</v>
       </c>
       <c r="N48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.419702225345487</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B49">
         <v>4.5</v>
       </c>
       <c r="C49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>540</v>
       </c>
       <c r="D49">
         <v>13.1</v>
       </c>
       <c r="M49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>470</v>
       </c>
       <c r="N49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.973658959898389</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B50">
         <v>4.5999999999999996</v>
       </c>
       <c r="C50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>550</v>
       </c>
       <c r="D50">
         <v>13.7</v>
       </c>
       <c r="M50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="N50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15.489162484756392</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B51">
         <v>4.5</v>
       </c>
       <c r="M51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>490</v>
       </c>
       <c r="N51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15.968882050501016</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="N52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.41530162022481</v>
       </c>
     </row>
